--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanachilukuri/bayou_mcmc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF9ADEC-F815-F347-809C-B1ABF8AAF755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1FE2AC-46C9-B24F-BC51-C7B48A2C12BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3E4EDB3B-C1A3-824E-B263-86E2B3584FEB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Single API</t>
   </si>
@@ -111,13 +111,22 @@
     <t>Accuracy Test - Pairs</t>
   </si>
   <si>
-    <t>Notes: In the bayou paper, they do it based on whether the expected program is in the top 10 results or not.   Should I have max length?                           May nee to have Inclusion/Exclusion of control structures differently</t>
-  </si>
-  <si>
     <t>Include APIs</t>
   </si>
   <si>
     <t>Exclude APIs</t>
+  </si>
+  <si>
+    <t>User studies</t>
+  </si>
+  <si>
+    <t>Examples to show:</t>
+  </si>
+  <si>
+    <t>Notes: In the bayou paper, they do it based on whether the expected program is in the top 10 results or not.   Should I have max length?                           May need to have Inclusion/Exclusion of control structures differently - yes</t>
+  </si>
+  <si>
+    <t>bayou-vae-mcmc side by side</t>
   </si>
 </sst>
 </file>
@@ -738,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95F159A-0EF3-DE4D-BEED-B69B79CB6154}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +782,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
       <c r="J1" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -812,7 +821,7 @@
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>0</v>
@@ -908,7 +917,7 @@
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>0</v>
@@ -1572,14 +1581,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D018F6-1E6C-3741-9230-CC2D98087BE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanachilukuri/bayou_mcmc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1FE2AC-46C9-B24F-BC51-C7B48A2C12BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F1FBF-7CE6-BD49-BA25-DDCB48399A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3E4EDB3B-C1A3-824E-B263-86E2B3584FEB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" xr2:uid="{3E4EDB3B-C1A3-824E-B263-86E2B3584FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantitative Tests" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Accuracy Test 25-100%</t>
   </si>
   <si>
-    <t>Feed in 25%, 50%, 75%, 100% of APIs. Two ways: randomly feed in APIs, in order of least-&gt;most common apis. Test will include entire test set. Metrics same as --&gt;</t>
-  </si>
-  <si>
     <t>Total: &gt;2000</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>bayou-vae-mcmc side by side</t>
+  </si>
+  <si>
+    <t>Feed in 25%, 50%, 75% of APIs. Two ways: randomly feed in APIs, in order of least-&gt;most common apis. Test will include entire test set. Metrics same as --&gt;</t>
   </si>
 </sst>
 </file>
@@ -323,101 +323,101 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,18 +748,18 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="8" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -768,85 +768,85 @@
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="J1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="18"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="27"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-    </row>
-    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -855,717 +855,717 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="27"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="18"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="23" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1595,15 +1595,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
